--- a/src/assets/public/Bulk_Subplan.xlsx
+++ b/src/assets/public/Bulk_Subplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\bms\src\assets\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BMS_Project\bms\src\assets\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D459B91-B634-4495-9390-DF241DB1AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB714B8-4691-45D9-AC9B-1ECE8660D893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Tax Calculation</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Voice Price</t>
-  </si>
-  <si>
-    <t>OTT Price</t>
   </si>
   <si>
     <t>AddOn Price</t>
@@ -402,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -419,17 +416,17 @@
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,9 +483,6 @@
       </c>
       <c r="S1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -505,10 +499,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Enable,Disable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Days,Months"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{9E9891AC-1387-4A6D-9511-EB95C15DE24F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{9E9891AC-1387-4A6D-9511-EB95C15DE24F}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30"</formula1>
     </dataValidation>
   </dataValidations>
